--- a/artfynd/A 32502-2023.xlsx
+++ b/artfynd/A 32502-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182158</v>
+        <v>112182383</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528247.9483793379</v>
+        <v>528051</v>
       </c>
       <c r="R2" t="n">
-        <v>6905261.076955158</v>
+        <v>6905434</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -757,19 +757,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182383</v>
+        <v>112182158</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>90666</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -845,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528050.6863677027</v>
+        <v>528248</v>
       </c>
       <c r="R3" t="n">
-        <v>6905433.540037624</v>
+        <v>6905261</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -878,19 +868,9 @@
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-06-29</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">

--- a/artfynd/A 32502-2023.xlsx
+++ b/artfynd/A 32502-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112182383</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>112182158</v>
       </c>
       <c r="B3" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 32502-2023.xlsx
+++ b/artfynd/A 32502-2023.xlsx
@@ -683,7 +683,7 @@
         <v>112182383</v>
       </c>
       <c r="B2" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
         <v>112182158</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>90814</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>

--- a/artfynd/A 32502-2023.xlsx
+++ b/artfynd/A 32502-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112182383</v>
+        <v>112182158</v>
       </c>
       <c r="B2" t="n">
-        <v>77650</v>
+        <v>90814</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>528051</v>
+        <v>528248</v>
       </c>
       <c r="R2" t="n">
-        <v>6905434</v>
+        <v>6905261</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112182158</v>
+        <v>112182383</v>
       </c>
       <c r="B3" t="n">
-        <v>90814</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -803,25 +803,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528248</v>
+        <v>528051</v>
       </c>
       <c r="R3" t="n">
-        <v>6905261</v>
+        <v>6905434</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
